--- a/v2/data.xlsx
+++ b/v2/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E45FC23-00EF-443C-9EB5-FD039D03CF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1A50B-008D-4AD4-BF5B-651114B0BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -57,13 +57,28 @@
   </si>
   <si>
     <t>34789_SDKH</t>
+  </si>
+  <si>
+    <t>main jpg</t>
+  </si>
+  <si>
+    <t>slide_1</t>
+  </si>
+  <si>
+    <t>slide_2</t>
+  </si>
+  <si>
+    <t>slide_3</t>
+  </si>
+  <si>
+    <t>slide_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +90,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,45 +459,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/v2/data.xlsx
+++ b/v2/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1A50B-008D-4AD4-BF5B-651114B0BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182E87E-02CA-43E9-9F45-925A2AC743E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -56,9 +56,6 @@
     <t>popup count</t>
   </si>
   <si>
-    <t>34789_SDKH</t>
-  </si>
-  <si>
     <t>main jpg</t>
   </si>
   <si>
@@ -72,6 +69,15 @@
   </si>
   <si>
     <t>slide_4</t>
+  </si>
+  <si>
+    <t>Raise the bar in psoriasis treatment</t>
+  </si>
+  <si>
+    <t>slide_5</t>
+  </si>
+  <si>
+    <t>4477_NABEEL</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -467,13 +473,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -484,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -495,10 +501,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -506,10 +509,18 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
